--- a/tree_rings/vs1_new/tree_indexes.xlsx
+++ b/tree_rings/vs1_new/tree_indexes.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmozhang/work/matlab/yan/tree_rings/vs1_new/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24945" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -98,29 +93,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,14 +140,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,16 +433,16 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="37" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="37" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -595,14 +608,20 @@
       <c r="Q4">
         <v>8</v>
       </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>3</v>
       </c>
@@ -626,9 +645,6 @@
       </c>
       <c r="J5">
         <v>32</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -656,9 +672,6 @@
       <c r="F6">
         <v>27</v>
       </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
       <c r="J6">
         <v>28</v>
       </c>
@@ -688,9 +701,6 @@
       <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
       <c r="I7">
         <v>36</v>
       </c>
@@ -713,28 +723,25 @@
         <v>6</v>
       </c>
       <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7">
         <v>7</v>
-      </c>
-      <c r="T7">
-        <v>22</v>
-      </c>
-      <c r="U7">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
       <c r="D8">
         <v>12</v>
       </c>
@@ -744,9 +751,15 @@
       <c r="F8">
         <v>19</v>
       </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
       <c r="H8">
         <v>25</v>
       </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
       <c r="J8">
         <v>30</v>
       </c>
@@ -758,6 +771,9 @@
       </c>
       <c r="M8">
         <v>35</v>
+      </c>
+      <c r="N8">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -770,83 +786,80 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="L10" s="1">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>18</v>
-      </c>
-      <c r="N10">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
         <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -854,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -864,6 +877,15 @@
       </c>
       <c r="E13">
         <v>16</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -891,28 +913,19 @@
       <c r="H14">
         <v>10</v>
       </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>11</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
       </c>
       <c r="H15">
         <v>19</v>
@@ -934,9 +947,6 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
       <c r="E16">
         <v>10</v>
       </c>
@@ -946,11 +956,11 @@
       <c r="G16">
         <v>15</v>
       </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="I16">
-        <v>19</v>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -966,6 +976,15 @@
       <c r="D17">
         <v>14</v>
       </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -977,9 +996,6 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
       <c r="E18">
         <v>8</v>
       </c>
@@ -988,9 +1004,6 @@
       </c>
       <c r="G18">
         <v>12</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
       </c>
       <c r="I18">
         <v>20</v>

--- a/tree_rings/vs1_new/tree_indexes.xlsx
+++ b/tree_rings/vs1_new/tree_indexes.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,6 +830,9 @@
       <c r="O10" s="1">
         <v>20</v>
       </c>
+      <c r="P10" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -858,9 +861,6 @@
       <c r="G12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -947,6 +947,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="E16">
         <v>10</v>
       </c>
@@ -989,9 +992,6 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
       </c>
       <c r="C18">
         <v>5</v>

--- a/tree_rings/vs1_new/tree_indexes.xlsx
+++ b/tree_rings/vs1_new/tree_indexes.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmozhang/work/matlab/yan/tree_rings/vs1_new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24945" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -93,18 +98,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,7 +117,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -151,8 +156,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,14 +437,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="37" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="37" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/tree_rings/vs1_new/tree_indexes.xlsx
+++ b/tree_rings/vs1_new/tree_indexes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="12640"/>
+    <workbookView xWindow="9320" yWindow="460" windowWidth="24940" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,67 +32,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>hs 1825-1855 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1825-1855 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1825-1855 others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1900-1940 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1900-1940 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1900-1940 others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1960-2012 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1960-2012 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs 1960-2012 others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wts 1825-1855 20</t>
-  </si>
-  <si>
-    <t>wts 1825-1855 8</t>
-  </si>
-  <si>
-    <t>wts 1825-1855 others</t>
-  </si>
-  <si>
-    <t>wts 1900-1940 20</t>
-  </si>
-  <si>
-    <t>wts 1900-1940 8</t>
-  </si>
-  <si>
-    <t>wts 1900-1940 others</t>
-  </si>
-  <si>
-    <t>wts 1960-2012 20</t>
-  </si>
-  <si>
-    <t>wts 1960-2012 8</t>
-  </si>
-  <si>
-    <t>wts 1960-2012 others</t>
+    <t>wts 1831-1842 others</t>
+  </si>
+  <si>
+    <t>wts 1831-1842 8</t>
+  </si>
+  <si>
+    <t>wts 1831-1842 20</t>
+  </si>
+  <si>
+    <t>hs 1831-1842 others</t>
+  </si>
+  <si>
+    <t>hs 1831-1842 8</t>
+  </si>
+  <si>
+    <t>hs 1831-1842 20</t>
+  </si>
+  <si>
+    <t>wts 1920-1932 others</t>
+  </si>
+  <si>
+    <t>wts 1920-1932 8</t>
+  </si>
+  <si>
+    <t>wts 1920-1932 20</t>
+  </si>
+  <si>
+    <t>hs 1920-1932 others</t>
+  </si>
+  <si>
+    <t>hs 1920-1932 8</t>
+  </si>
+  <si>
+    <t>hs 1920-1932 20</t>
+  </si>
+  <si>
+    <t>wts 1999-2010 others</t>
+  </si>
+  <si>
+    <t>wts 1999-2010 8</t>
+  </si>
+  <si>
+    <t>wts 1999-2010 20</t>
+  </si>
+  <si>
+    <t>hs 1999-2010 others</t>
+  </si>
+  <si>
+    <t>hs 1999-2010 8</t>
+  </si>
+  <si>
+    <t>hs 1999-2010 20</t>
   </si>
 </sst>
 </file>
@@ -437,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -447,7 +440,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -467,9 +460,6 @@
       <c r="G1">
         <v>18</v>
       </c>
-      <c r="H1">
-        <v>19</v>
-      </c>
       <c r="I1">
         <v>21</v>
       </c>
@@ -482,7 +472,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -493,11 +483,8 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
       <c r="F2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -556,12 +543,12 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -623,7 +610,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -658,7 +645,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -684,7 +671,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -737,7 +724,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -745,12 +732,6 @@
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
       <c r="F8">
         <v>19</v>
       </c>
@@ -766,22 +747,13 @@
       <c r="J8">
         <v>30</v>
       </c>
-      <c r="K8">
-        <v>31</v>
-      </c>
       <c r="L8">
         <v>32</v>
       </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-      <c r="N8">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -792,14 +764,11 @@
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
@@ -818,15 +787,9 @@
       <c r="J10" s="1">
         <v>14</v>
       </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
       <c r="L10" s="1">
         <v>17</v>
       </c>
-      <c r="M10" s="1">
-        <v>18</v>
-      </c>
       <c r="N10" s="1">
         <v>19</v>
       </c>
@@ -839,12 +802,18 @@
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -867,7 +836,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -893,7 +862,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -922,7 +891,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -942,7 +911,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -971,7 +940,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -994,7 +963,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>5</v>
